--- a/municipal/საკუთრების ფორმების მიხედვით/რეგისტრირებულ სუბიექტთა რაოდენობა საკუთრების ფორმების მიხედვით/შიდა ქართლი/ხაშური.xlsx
+++ b/municipal/საკუთრების ფორმების მიხედვით/რეგისტრირებულ სუბიექტთა რაოდენობა საკუთრების ფორმების მიხედვით/შიდა ქართლი/ხაშური.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სუბიექტების რაოდენობა\შიდა ქართლი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\ბიზნეს რეგისტრი 2023\ბიზნეს რეგისტრი\საკუთრების ფორმების მიხედვით ქარ.&amp;Eng\რეგისტრირებული სუბიექტები ქარ. EN\რეგისტრირებულ სუბიექტთა რაოდენობა საკუთრების ფორმების მიხედვით\შიდა ქართლი\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0946ECF-5A5B-4ED5-BE8C-FE76140B3A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ხაშური" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>რეგისტრირებული სუბიექტების რაოდენობა საკუთრების ფორმების მიხედვით ხაშურის მუნიციპალიტეტში</t>
   </si>
@@ -57,14 +58,17 @@
   </si>
   <si>
     <t xml:space="preserve">სხვა </t>
+  </si>
+  <si>
+    <t xml:space="preserve">გაურკვეველი </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -122,12 +126,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -136,13 +140,33 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -151,28 +175,28 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -183,6 +207,13 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -190,37 +221,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,172 +519,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" style="3" customWidth="1"/>
-    <col min="2" max="13" width="12" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="55.7109375" style="10" customWidth="1"/>
+    <col min="2" max="15" width="8.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:15" s="9" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:15" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="12">
         <v>2010</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="12">
         <v>2011</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="12">
         <v>2012</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="12">
         <v>2013</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="12">
         <v>2014</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="12">
         <v>2015</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="12">
         <v>2016</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="12">
         <v>2017</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="12">
         <v>2018</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="12">
         <v>2019</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="12">
         <v>2020</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17">
-        <v>5150</v>
-      </c>
-      <c r="C4" s="17">
-        <v>5517</v>
-      </c>
-      <c r="D4" s="17">
-        <v>5823</v>
-      </c>
-      <c r="E4" s="17">
-        <v>6243</v>
-      </c>
-      <c r="F4" s="17">
-        <v>6775</v>
-      </c>
-      <c r="G4" s="17">
-        <v>6925</v>
-      </c>
-      <c r="H4" s="17">
-        <v>7410</v>
-      </c>
-      <c r="I4" s="17">
-        <v>7885</v>
-      </c>
-      <c r="J4" s="17">
-        <v>8287</v>
-      </c>
-      <c r="K4" s="17">
-        <v>8650</v>
-      </c>
-      <c r="L4" s="17">
-        <v>9030</v>
-      </c>
-      <c r="M4" s="17">
-        <v>9470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="N3" s="12">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5111</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5478</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5786</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6205</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6738</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6903</v>
+      </c>
+      <c r="H4" s="4">
+        <v>7386</v>
+      </c>
+      <c r="I4" s="4">
+        <v>7855</v>
+      </c>
+      <c r="J4" s="4">
+        <v>8257</v>
+      </c>
+      <c r="K4" s="4">
+        <v>8620</v>
+      </c>
+      <c r="L4" s="4">
+        <v>9002</v>
+      </c>
+      <c r="M4" s="4">
+        <v>9441</v>
+      </c>
+      <c r="N4" s="4">
+        <v>9874</v>
+      </c>
+      <c r="O4" s="4">
+        <v>10413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
-        <v>5016</v>
+      <c r="B5" s="5">
+        <v>4975</v>
       </c>
       <c r="C5" s="18">
-        <v>5376</v>
+        <v>5335</v>
       </c>
       <c r="D5" s="18">
-        <v>5682</v>
+        <v>5643</v>
       </c>
       <c r="E5" s="18">
-        <v>6090</v>
+        <v>6050</v>
       </c>
       <c r="F5" s="18">
-        <v>6561</v>
+        <v>6523</v>
       </c>
       <c r="G5" s="18">
-        <v>6701</v>
+        <v>6675</v>
       </c>
       <c r="H5" s="18">
-        <v>7189</v>
+        <v>7151</v>
       </c>
       <c r="I5" s="18">
-        <v>7654</v>
+        <v>7604</v>
       </c>
       <c r="J5" s="18">
-        <v>8053</v>
+        <v>8003</v>
       </c>
       <c r="K5" s="18">
-        <v>8402</v>
+        <v>8352</v>
       </c>
       <c r="L5" s="18">
-        <v>8775</v>
+        <v>8726</v>
       </c>
       <c r="M5" s="18">
-        <v>9204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+        <v>9154</v>
+      </c>
+      <c r="N5" s="18">
+        <v>9580</v>
+      </c>
+      <c r="O5" s="18">
+        <v>10110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="5">
         <v>15</v>
       </c>
       <c r="C6" s="18">
@@ -702,12 +736,18 @@
       <c r="M6" s="18">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="N6" s="18">
+        <v>162</v>
+      </c>
+      <c r="O6" s="18">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="5">
         <v>76</v>
       </c>
       <c r="C7" s="18">
@@ -743,53 +783,65 @@
       <c r="M7" s="18">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="N7" s="18">
+        <v>58</v>
+      </c>
+      <c r="O7" s="18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18">
-        <v>35</v>
+      <c r="B8" s="5">
+        <v>36</v>
       </c>
       <c r="C8" s="18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I8" s="18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J8" s="18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K8" s="18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L8" s="18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M8" s="18">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="18">
+        <v>25</v>
+      </c>
+      <c r="O8" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="18">
@@ -802,35 +854,41 @@
         <v>4</v>
       </c>
       <c r="F9" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="18">
+        <v>8</v>
+      </c>
+      <c r="I9" s="18">
+        <v>10</v>
+      </c>
+      <c r="J9" s="18">
+        <v>10</v>
+      </c>
+      <c r="K9" s="18">
+        <v>11</v>
+      </c>
+      <c r="L9" s="18">
+        <v>12</v>
+      </c>
+      <c r="M9" s="18">
+        <v>12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>12</v>
+      </c>
+      <c r="O9" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="18">
-        <v>11</v>
-      </c>
-      <c r="J9" s="18">
-        <v>11</v>
-      </c>
-      <c r="K9" s="18">
-        <v>12</v>
-      </c>
-      <c r="L9" s="18">
-        <v>13</v>
-      </c>
-      <c r="M9" s="18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18">
+      <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="C10" s="18">
@@ -866,350 +924,175 @@
       <c r="M10" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="N10" s="18">
+        <v>11</v>
+      </c>
+      <c r="O10" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="18">
-        <v>5</v>
+      <c r="B11" s="5">
+        <v>3</v>
       </c>
       <c r="C11" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" s="18">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I11" s="18">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J11" s="18">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="K11" s="18">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="L11" s="18">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="M11" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="N11" s="18">
+        <v>23</v>
+      </c>
+      <c r="O11" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7">
+        <v>3</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>3</v>
+      </c>
+      <c r="L12" s="7">
+        <v>3</v>
+      </c>
+      <c r="M12" s="7">
+        <v>3</v>
+      </c>
+      <c r="N12" s="7">
+        <v>3</v>
+      </c>
+      <c r="O12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>